--- a/coefficients.xlsx
+++ b/coefficients.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d11969233042b3d9/Documents/GitHub/Project-4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Dropbox\UNC_data_analysis_course\GitLab Clone of Class Respository\Project-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60A3D2E6-6A1E-499F-B36A-4069938D06D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5BCBA7-E672-4A6A-B0DC-52FA42BA2AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2544" yWindow="948" windowWidth="19128" windowHeight="11232" xr2:uid="{9D45BF9F-8A72-49FF-9127-3A70A933E487}"/>
+    <workbookView xWindow="132" yWindow="12" windowWidth="18852" windowHeight="12372" xr2:uid="{9D45BF9F-8A72-49FF-9127-3A70A933E487}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,15 +41,6 @@
     <t>V201201_Moderate           </t>
   </si>
   <si>
-    <t>V201507x </t>
-  </si>
-  <si>
-    <t>V201151                                                                  </t>
-  </si>
-  <si>
-    <t>V201152                                                                  </t>
-  </si>
-  <si>
     <t>V201228_Democrat                                                          </t>
   </si>
   <si>
@@ -150,6 +141,15 @@
   </si>
   <si>
     <t>V202468x_Under $9,999                                                     </t>
+  </si>
+  <si>
+    <t>V201507x  Age</t>
+  </si>
+  <si>
+    <t>V201151 Thermo Biden                                                    </t>
+  </si>
+  <si>
+    <t>V201152 Thermo Trump                                             </t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,16 +535,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
       <c r="B1" s="1">
         <v>-1.25954762E-4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1">
         <v>-1.4334681599999999E-2</v>
@@ -552,7 +549,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1">
         <v>-5.9669533000000002E-3</v>
@@ -560,7 +557,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1">
         <v>8.3126337199999997E-2</v>
@@ -568,7 +565,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1">
         <v>-1.3024152899999999</v>
@@ -576,7 +573,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1">
         <v>-0.79964596399999999</v>
@@ -584,7 +581,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1">
         <v>0.16403680500000001</v>
@@ -592,7 +589,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1">
         <v>0.50859105599999999</v>
@@ -600,7 +597,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1">
         <v>0.12792268100000001</v>
@@ -608,7 +605,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1">
         <v>-0.59136335500000003</v>
@@ -616,7 +613,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1">
         <v>-0.76541495500000001</v>
@@ -624,7 +621,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1">
         <v>5.2202202400000002E-2</v>
@@ -632,7 +629,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1">
         <v>-0.25589474600000001</v>
@@ -640,7 +637,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B14" s="1">
         <v>3.1147840100000002E-3</v>
@@ -648,7 +645,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1">
         <v>8.2909843600000005E-2</v>
@@ -656,7 +653,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B16" s="1">
         <v>0.622053246</v>
@@ -664,7 +661,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B17" s="1">
         <v>-0.103877014</v>
@@ -672,7 +669,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B18" s="1">
         <v>1.03569388E-2</v>
@@ -680,7 +677,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B19" s="1">
         <v>-5.4374730400000001E-2</v>
@@ -688,7 +685,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B20" s="1">
         <v>0.25223627599999998</v>
@@ -696,7 +693,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B21" s="1">
         <v>-0.22157722599999999</v>
@@ -704,7 +701,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B22" s="1">
         <v>-5.4053513599999999E-2</v>
@@ -712,7 +709,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B23" s="1">
         <v>-5.5061157899999998E-2</v>
@@ -720,7 +717,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B24" s="1">
         <v>-0.33638876200000001</v>
@@ -728,7 +725,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B25" s="1">
         <v>-0.33930494700000002</v>
@@ -736,7 +733,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B26" s="1">
         <v>3.7796269100000002E-2</v>
@@ -744,7 +741,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B27" s="1">
         <v>0.42852244299999998</v>
@@ -752,7 +749,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B28" s="1">
         <v>-0.33680605899999999</v>
@@ -760,7 +757,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B29" s="1">
         <v>-5.3255893899999997E-2</v>
@@ -768,7 +765,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B30" s="1">
         <v>-0.18496106000000001</v>
@@ -776,7 +773,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B31" s="1">
         <v>-4.5292529200000001E-2</v>
@@ -784,7 +781,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B32" s="1">
         <v>-6.8712626299999996E-2</v>
@@ -792,7 +789,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B33" s="1">
         <v>-4.8338943299999999E-2</v>
@@ -800,7 +797,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B34" s="1">
         <v>-0.69431609500000002</v>
@@ -808,7 +805,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B35" s="1">
         <v>-9.5685468199999998E-2</v>
@@ -816,7 +813,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>-0.17130238</v>
@@ -824,7 +821,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B37" s="1">
         <v>-0.37434602099999997</v>
@@ -832,13 +829,16 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B38" s="1">
         <v>-1.2529607199999999</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
       <c r="B39" s="1">
         <v>0.197873347</v>
       </c>

--- a/coefficients.xlsx
+++ b/coefficients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d11969233042b3d9/Documents/GitHub/Project-4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60A3D2E6-6A1E-499F-B36A-4069938D06D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="8_{60A3D2E6-6A1E-499F-B36A-4069938D06D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FE47143-895F-408C-A829-004AAE58D36E}"/>
   <bookViews>
-    <workbookView xWindow="2544" yWindow="948" windowWidth="19128" windowHeight="11232" xr2:uid="{9D45BF9F-8A72-49FF-9127-3A70A933E487}"/>
+    <workbookView xWindow="2892" yWindow="1296" windowWidth="19128" windowHeight="11232" xr2:uid="{9D45BF9F-8A72-49FF-9127-3A70A933E487}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -156,13 +156,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -185,9 +190,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62E34BA-A437-477F-AC18-87689588217A}">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -538,312 +544,311 @@
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1">
-        <v>-1.25954762E-4</v>
+      <c r="B1" s="2">
+        <v>-1.267862E-2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
-        <v>-1.4334681599999999E-2</v>
+      <c r="B2">
+        <v>-5.4767899999999996E-3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
-        <v>-5.9669533000000002E-3</v>
+      <c r="B3">
+        <v>7.7919290000000002E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
-        <v>8.3126337199999997E-2</v>
+      <c r="B4">
+        <v>-1.1783526499999999</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
-        <v>-1.3024152899999999</v>
+      <c r="B5">
+        <v>-0.62182148000000004</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
-        <v>-0.79964596399999999</v>
+      <c r="B6">
+        <v>0.35773164000000002</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1">
-        <v>0.16403680500000001</v>
+      <c r="B7">
+        <v>8.2164669999999995E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="1">
-        <v>0.50859105599999999</v>
+      <c r="B8">
+        <v>-0.16054681000000001</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="1">
-        <v>0.12792268100000001</v>
+      <c r="B9">
+        <v>-1.02958335</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
-        <v>-0.59136335500000003</v>
+      <c r="B10">
+        <v>-0.22075940999999999</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="1">
-        <v>-0.76541495500000001</v>
+      <c r="B11">
+        <v>-0.11045211000000001</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="1">
-        <v>5.2202202400000002E-2</v>
+      <c r="B12">
+        <v>-8.2412319999999997E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="1">
-        <v>-0.25589474600000001</v>
+      <c r="B13">
+        <v>0.24347617999999999</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="1">
-        <v>3.1147840100000002E-3</v>
+      <c r="B14">
+        <v>-0.26191344</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="1">
-        <v>8.2909843600000005E-2</v>
+      <c r="B15">
+        <v>1.0129156500000001</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="1">
-        <v>0.622053246</v>
+      <c r="B16">
+        <v>0.26735314999999998</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="1">
-        <v>-0.103877014</v>
+      <c r="B17">
+        <v>0.52147345000000001</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="1">
-        <v>1.03569388E-2</v>
+      <c r="B18">
+        <v>-0.27192622</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="1">
-        <v>-5.4374730400000001E-2</v>
+      <c r="B19">
+        <v>0.68193044999999997</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="1">
-        <v>0.25223627599999998</v>
+      <c r="B20">
+        <v>-0.21814606</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="1">
-        <v>-0.22157722599999999</v>
+      <c r="B21">
+        <v>-7.3648340000000007E-2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="1">
-        <v>-5.4053513599999999E-2</v>
+      <c r="B22">
+        <v>-0.42506850000000002</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="1">
-        <v>-5.5061157899999998E-2</v>
+      <c r="B23">
+        <v>-8.1796980000000005E-2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="1">
-        <v>-0.33638876200000001</v>
+      <c r="B24">
+        <v>-0.66745867000000003</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="1">
-        <v>-0.33930494700000002</v>
+      <c r="B25">
+        <v>0.15324599999999999</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="1">
-        <v>3.7796269100000002E-2</v>
+      <c r="B26">
+        <v>0.23074272000000001</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="1">
-        <v>0.42852244299999998</v>
+      <c r="B27">
+        <v>-1.00303706</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="1">
-        <v>-0.33680605899999999</v>
+      <c r="B28">
+        <v>9.926488E-2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="1">
-        <v>-5.3255893899999997E-2</v>
+      <c r="B29">
+        <v>-0.27398739</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="1">
-        <v>-0.18496106000000001</v>
+      <c r="B30">
+        <v>-0.10804481000000001</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="1">
-        <v>-4.5292529200000001E-2</v>
+      <c r="B31">
+        <v>7.2728280000000006E-2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="1">
-        <v>-6.8712626299999996E-2</v>
+      <c r="B32">
+        <v>9.2536380000000001E-2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="1">
-        <v>-4.8338943299999999E-2</v>
+      <c r="B33">
+        <v>-0.71568695999999998</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="1">
-        <v>-0.69431609500000002</v>
+      <c r="B34">
+        <v>1.83128E-3</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="1">
-        <v>-9.5685468199999998E-2</v>
+      <c r="B35">
+        <v>-0.39358559999999998</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="1">
-        <v>-0.17130238</v>
+      <c r="B36">
+        <v>-0.26711137000000001</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="1">
-        <v>-0.37434602099999997</v>
+      <c r="B37">
+        <v>-1.18672884</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="1">
-        <v>-1.2529607199999999</v>
+      <c r="B38">
+        <v>9.3562389999999995E-2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B39" s="1">
-        <v>0.197873347</v>
-      </c>
+      <c r="B39" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/coefficients.xlsx
+++ b/coefficients.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Dropbox\UNC_data_analysis_course\GitLab Clone of Class Respository\Project-4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d11969233042b3d9/Documents/GitHub/Project-4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5BCBA7-E672-4A6A-B0DC-52FA42BA2AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{0E5BCBA7-E672-4A6A-B0DC-52FA42BA2AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5414B513-3283-4DCA-9A83-E921C292FA75}"/>
   <bookViews>
-    <workbookView xWindow="132" yWindow="12" windowWidth="18852" windowHeight="12372" xr2:uid="{9D45BF9F-8A72-49FF-9127-3A70A933E487}"/>
+    <workbookView xWindow="2892" yWindow="1296" windowWidth="19128" windowHeight="11232" xr2:uid="{9D45BF9F-8A72-49FF-9127-3A70A933E487}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$39</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -524,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62E34BA-A437-477F-AC18-87689588217A}">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,313 +538,311 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
       <c r="B1" s="1">
-        <v>-1.25954762E-4</v>
+        <v>-1.267862E-2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="1">
-        <v>-1.4334681599999999E-2</v>
+        <v>36</v>
+      </c>
+      <c r="B2">
+        <v>-5.4767899999999996E-3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="1">
-        <v>-5.9669533000000002E-3</v>
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>7.7919290000000002E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="1">
-        <v>8.3126337199999997E-2</v>
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-1.1783526499999999</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
-        <v>-1.3024152899999999</v>
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>-0.62182148000000004</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1">
-        <v>-0.79964596399999999</v>
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>0.35773164000000002</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.16403680500000001</v>
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>8.2164669999999995E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.50859105599999999</v>
+        <v>28</v>
+      </c>
+      <c r="B8">
+        <v>-0.16054681000000001</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.12792268100000001</v>
+        <v>29</v>
+      </c>
+      <c r="B9">
+        <v>-1.02958335</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-0.59136335500000003</v>
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>-0.22075940999999999</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1">
-        <v>-0.76541495500000001</v>
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>-0.11045211000000001</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="1">
-        <v>5.2202202400000002E-2</v>
+        <v>31</v>
+      </c>
+      <c r="B12">
+        <v>-8.2412319999999997E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="1">
-        <v>-0.25589474600000001</v>
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <v>0.24347617999999999</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="1">
-        <v>3.1147840100000002E-3</v>
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>-0.26191344</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="1">
-        <v>8.2909843600000005E-2</v>
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>1.0129156500000001</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.622053246</v>
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>0.26735314999999998</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="1">
-        <v>-0.103877014</v>
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>0.52147345000000001</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="1">
-        <v>1.03569388E-2</v>
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>-0.27192622</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="1">
-        <v>-5.4374730400000001E-2</v>
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <v>0.68193044999999997</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0.25223627599999998</v>
+        <v>12</v>
+      </c>
+      <c r="B20">
+        <v>-0.21814606</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="1">
-        <v>-0.22157722599999999</v>
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>-7.3648340000000007E-2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="1">
-        <v>-5.4053513599999999E-2</v>
+        <v>14</v>
+      </c>
+      <c r="B22">
+        <v>-0.42506850000000002</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="1">
-        <v>-5.5061157899999998E-2</v>
+        <v>33</v>
+      </c>
+      <c r="B23">
+        <v>-8.1796980000000005E-2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="1">
-        <v>-0.33638876200000001</v>
+        <v>15</v>
+      </c>
+      <c r="B24">
+        <v>-0.66745867000000003</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="1">
-        <v>-0.33930494700000002</v>
+        <v>16</v>
+      </c>
+      <c r="B25">
+        <v>0.15324599999999999</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="1">
-        <v>3.7796269100000002E-2</v>
+        <v>17</v>
+      </c>
+      <c r="B26">
+        <v>0.23074272000000001</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="1">
-        <v>0.42852244299999998</v>
+        <v>18</v>
+      </c>
+      <c r="B27">
+        <v>-1.00303706</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="1">
-        <v>-0.33680605899999999</v>
+        <v>19</v>
+      </c>
+      <c r="B28">
+        <v>9.926488E-2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="1">
-        <v>-5.3255893899999997E-2</v>
+        <v>20</v>
+      </c>
+      <c r="B29">
+        <v>-0.27398739</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="1">
-        <v>-0.18496106000000001</v>
+        <v>21</v>
+      </c>
+      <c r="B30">
+        <v>-0.10804481000000001</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="1">
-        <v>-4.5292529200000001E-2</v>
+        <v>22</v>
+      </c>
+      <c r="B31">
+        <v>7.2728280000000006E-2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="1">
-        <v>-6.8712626299999996E-2</v>
+        <v>23</v>
+      </c>
+      <c r="B32">
+        <v>9.2536380000000001E-2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="1">
-        <v>-4.8338943299999999E-2</v>
+        <v>24</v>
+      </c>
+      <c r="B33">
+        <v>-0.71568695999999998</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="1">
-        <v>-0.69431609500000002</v>
+        <v>25</v>
+      </c>
+      <c r="B34">
+        <v>1.83128E-3</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" s="1">
-        <v>-9.5685468199999998E-2</v>
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>-0.39358559999999998</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="1">
-        <v>-0.17130238</v>
+        <v>26</v>
+      </c>
+      <c r="B36">
+        <v>-0.26711137000000001</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>26</v>
-      </c>
-      <c r="B37" s="1">
-        <v>-0.37434602099999997</v>
+        <v>27</v>
+      </c>
+      <c r="B37">
+        <v>-1.18672884</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" s="1">
-        <v>-1.2529607199999999</v>
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>9.3562389999999995E-2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="1">
-        <v>0.197873347</v>
-      </c>
+      <c r="B39" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
